--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2573506.999378903</v>
+        <v>2707588.929782854</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13228832.04867467</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1852030.743161947</v>
+        <v>612367.9462114751</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5404158.830817571</v>
+        <v>5722441.74597236</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>335.7778908032778</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>54.80731095108397</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -829,10 +831,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>123.4762289301399</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -868,16 +870,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>170.5286629346218</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,25 +898,25 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>104.1187005980912</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>43.36616070948388</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1057,13 +1059,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1110,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>107.6028387147881</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>71.36602075718341</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>36.6643886852088</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>160.962541995739</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>80.12117155833093</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -1297,19 +1299,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1354,10 +1356,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>32.54055174409233</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>106.3389367316498</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.54790254396354</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,16 +1426,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1534,19 +1536,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1582,16 +1584,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>71.49435764726746</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>20.13856648116858</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>164.6577861965391</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396354</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,19 +1660,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.9145207250131</v>
+        <v>353.9145207250137</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1765,10 +1767,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,10 +1779,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>70.14557982003684</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>15.31997131651376</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
@@ -1831,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1849,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068506</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -1859,7 +1861,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -2005,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>135.9188289179902</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>260.4446813871617</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2132,7 +2134,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -2147,7 +2149,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446598</v>
       </c>
     </row>
     <row r="21">
@@ -2245,13 +2247,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -2296,16 +2298,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>274.8493527759923</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>19.43015020374928</v>
       </c>
     </row>
     <row r="23">
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -2491,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>60.48199183439251</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -2527,16 +2529,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>190.889068429759</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -2728,7 +2730,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>30.42064798737231</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2770,13 +2772,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>211.2730214979434</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2950,25 +2952,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.75630100837096</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3007,7 +3009,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>168.7961849778493</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3016,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>168.9733955350591</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>53.76370176557791</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3253,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3277,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G35" t="n">
         <v>400.2956717864458</v>
@@ -3424,25 +3426,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>39.37144137214214</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,13 +3480,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3503,7 +3505,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868319</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -3563,7 +3565,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
@@ -3664,13 +3666,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>113.9670204447203</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100407</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886491</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3743,10 +3745,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>153.5106513059035</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3758,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3797,13 +3799,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3898,10 +3900,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -3910,7 +3912,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -3943,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>55.35945754066872</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>192.8717243028901</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3986,13 +3988,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -4028,10 +4030,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>33.18065927290976</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4150,10 +4152,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>123.9086344760398</v>
+        <v>218.008057705788</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1424.423852294003</v>
+        <v>932.2144580460983</v>
       </c>
       <c r="C2" t="n">
-        <v>997.5231223073035</v>
+        <v>505.3137280593985</v>
       </c>
       <c r="D2" t="n">
-        <v>574.2305014923038</v>
+        <v>486.0615112848029</v>
       </c>
       <c r="E2" t="n">
-        <v>552.2939656805654</v>
+        <v>60.08457143266044</v>
       </c>
       <c r="F2" t="n">
-        <v>127.1697838699656</v>
+        <v>39.00079366246474</v>
       </c>
       <c r="G2" t="n">
-        <v>71.80886371735554</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="H2" t="n">
-        <v>71.80886371735554</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>36.91199246082674</v>
+        <v>880.2445183516411</v>
       </c>
       <c r="L2" t="n">
-        <v>36.91199246082674</v>
+        <v>880.2445183516411</v>
       </c>
       <c r="M2" t="n">
-        <v>358.3859952497895</v>
+        <v>1338.611505491541</v>
       </c>
       <c r="N2" t="n">
-        <v>358.3859952497895</v>
+        <v>1338.611505491541</v>
       </c>
       <c r="O2" t="n">
-        <v>815.1719019525203</v>
+        <v>1817.550429733969</v>
       </c>
       <c r="P2" t="n">
-        <v>1271.957808655251</v>
+        <v>1817.550429733969</v>
       </c>
       <c r="Q2" t="n">
-        <v>1728.043288159434</v>
+        <v>1817.550429733969</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="U2" t="n">
-        <v>1845.599623041337</v>
+        <v>1676.751855212284</v>
       </c>
       <c r="V2" t="n">
-        <v>1845.599623041337</v>
+        <v>1676.751855212284</v>
       </c>
       <c r="W2" t="n">
-        <v>1449.208273341684</v>
+        <v>1280.36050551263</v>
       </c>
       <c r="X2" t="n">
-        <v>1441.528678549835</v>
+        <v>1272.680910720782</v>
       </c>
       <c r="Y2" t="n">
-        <v>1440.231812545129</v>
+        <v>1271.384044716076</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I3" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J3" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K3" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="L3" t="n">
-        <v>36.91199246082674</v>
+        <v>328.5536830608396</v>
       </c>
       <c r="M3" t="n">
-        <v>36.91199246082674</v>
+        <v>807.4926073032677</v>
       </c>
       <c r="N3" t="n">
-        <v>475.2419029331441</v>
+        <v>1286.431531545696</v>
       </c>
       <c r="O3" t="n">
-        <v>932.027809635875</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="P3" t="n">
-        <v>1388.813716338606</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>948.1205518639796</v>
+        <v>936.5534831847388</v>
       </c>
       <c r="C4" t="n">
-        <v>948.1205518639796</v>
+        <v>764.5809200636547</v>
       </c>
       <c r="D4" t="n">
-        <v>784.8037789907503</v>
+        <v>601.2641471904254</v>
       </c>
       <c r="E4" t="n">
-        <v>618.5955731436038</v>
+        <v>435.055941343279</v>
       </c>
       <c r="F4" t="n">
-        <v>446.7337989181643</v>
+        <v>263.1941671178394</v>
       </c>
       <c r="G4" t="n">
-        <v>280.4768292123964</v>
+        <v>263.1941671178394</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082674</v>
+        <v>96.19346351647545</v>
       </c>
       <c r="K4" t="n">
-        <v>239.8047369801043</v>
+        <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>594.4940582745251</v>
+        <v>677.4103860167334</v>
       </c>
       <c r="M4" t="n">
-        <v>985.6798532447758</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1363.171364120812</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1718.599492800575</v>
+        <v>1517.507422453208</v>
       </c>
       <c r="P4" t="n">
-        <v>1718.599492800575</v>
+        <v>1808.106634375109</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1888.068151303044</v>
       </c>
       <c r="S4" t="n">
-        <v>1628.425962247645</v>
+        <v>1717.933103822179</v>
       </c>
       <c r="T4" t="n">
-        <v>1456.174787566209</v>
+        <v>1717.933103822179</v>
       </c>
       <c r="U4" t="n">
-        <v>1456.174787566209</v>
+        <v>1437.748655322484</v>
       </c>
       <c r="V4" t="n">
-        <v>1174.463320174238</v>
+        <v>1437.748655322484</v>
       </c>
       <c r="W4" t="n">
-        <v>1174.463320174238</v>
+        <v>1162.896251494997</v>
       </c>
       <c r="X4" t="n">
-        <v>1174.463320174238</v>
+        <v>1162.896251494997</v>
       </c>
       <c r="Y4" t="n">
-        <v>948.1205518639796</v>
+        <v>936.5534831847388</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1416.774797953253</v>
+        <v>1295.32778354778</v>
       </c>
       <c r="C5" t="n">
-        <v>1311.604393308716</v>
+        <v>1272.467457601484</v>
       </c>
       <c r="D5" t="n">
-        <v>888.3117724937163</v>
+        <v>1228.663254864631</v>
       </c>
       <c r="E5" t="n">
-        <v>462.3348326415738</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F5" t="n">
-        <v>441.2510548713781</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082674</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>36.91199246082674</v>
+        <v>572.914647509062</v>
       </c>
       <c r="L5" t="n">
-        <v>36.91199246082674</v>
+        <v>572.914647509062</v>
       </c>
       <c r="M5" t="n">
-        <v>36.91199246082674</v>
+        <v>572.914647509062</v>
       </c>
       <c r="N5" t="n">
-        <v>493.6978991635576</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O5" t="n">
-        <v>815.1719019525203</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P5" t="n">
-        <v>1271.957808655251</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W5" t="n">
-        <v>1845.599623041337</v>
+        <v>1724.152608635864</v>
       </c>
       <c r="X5" t="n">
-        <v>1433.879624209084</v>
+        <v>1716.473013844015</v>
       </c>
       <c r="Y5" t="n">
-        <v>1432.582758204378</v>
+        <v>1311.135743798905</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273854</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>316.0561247023296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>772.8420314050604</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>772.8420314050604</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M6" t="n">
-        <v>772.8420314050604</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N6" t="n">
-        <v>772.8420314050604</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="O6" t="n">
-        <v>850.0084995511718</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P6" t="n">
-        <v>1306.794406253903</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956634</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>784.9145678863947</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>612.9420047653107</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>612.9420047653107</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>446.7337989181643</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>446.7337989181643</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>280.4768292123964</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1066.806038155494</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1444.297549031529</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1718.599492800575</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>1798.56100972851</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>1798.56100972851</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1555.22166195441</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U7" t="n">
-        <v>1555.22166195441</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V7" t="n">
-        <v>1273.510194562439</v>
+        <v>1592.697720113037</v>
       </c>
       <c r="W7" t="n">
-        <v>1273.510194562439</v>
+        <v>1317.84531628555</v>
       </c>
       <c r="X7" t="n">
-        <v>1201.423304908718</v>
+        <v>1317.84531628555</v>
       </c>
       <c r="Y7" t="n">
-        <v>975.0805365984604</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1796.086427374292</v>
+        <v>1270.775797585523</v>
       </c>
       <c r="C8" t="n">
-        <v>1369.185697387593</v>
+        <v>843.8750675988227</v>
       </c>
       <c r="D8" t="n">
-        <v>945.8930765725929</v>
+        <v>824.622850824227</v>
       </c>
       <c r="E8" t="n">
-        <v>908.8583405269275</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F8" t="n">
-        <v>483.7341587163277</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G8" t="n">
-        <v>79.39509630577632</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
         <v>79.39509630577632</v>
@@ -4808,19 +4810,19 @@
         <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>1006.023847611597</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>1006.023847611597</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N8" t="n">
-        <v>1556.689382596036</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O8" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
         <v>2107.354917580474</v>
@@ -4829,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>1957.955532077195</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>1699.600622673607</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462377</v>
+        <v>1699.600622673607</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.911252462377</v>
+        <v>1699.600622673607</v>
       </c>
       <c r="X8" t="n">
-        <v>2217.231657670528</v>
+        <v>1287.880623841354</v>
       </c>
       <c r="Y8" t="n">
-        <v>2215.934791665823</v>
+        <v>1286.583757836649</v>
       </c>
     </row>
     <row r="9">
@@ -4890,10 +4892,10 @@
         <v>866.8612493132769</v>
       </c>
       <c r="M9" t="n">
-        <v>866.8612493132769</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="N9" t="n">
-        <v>1417.526784297715</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O9" t="n">
         <v>1853.185855629757</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>695.4456037608461</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>523.4730406397621</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>360.1562677665327</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>360.1562677665327</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>188.2944935410931</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4984,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1981.571904688275</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="U10" t="n">
-        <v>1701.38745618858</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="V10" t="n">
-        <v>1419.675988796609</v>
+        <v>1726.026124276713</v>
       </c>
       <c r="W10" t="n">
-        <v>1144.823584969122</v>
+        <v>1451.173720449226</v>
       </c>
       <c r="X10" t="n">
-        <v>1111.95434078317</v>
+        <v>1208.609823895031</v>
       </c>
       <c r="Y10" t="n">
-        <v>885.6115724729118</v>
+        <v>1208.609823895031</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>935.5012065748601</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C11" t="n">
-        <v>935.5012065748601</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D11" t="n">
-        <v>935.5012065748601</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E11" t="n">
-        <v>828.0881391691532</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F11" t="n">
-        <v>402.9639573585534</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>402.9639573585534</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>105.0955788325882</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>70.19870757605942</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>70.19870757605942</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>785.7070155515585</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>785.7070155515585</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>785.7070155515585</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N11" t="n">
-        <v>1654.416021805294</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O11" t="n">
-        <v>2499.560671956106</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P11" t="n">
-        <v>3207.839951114034</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q11" t="n">
-        <v>3509.935378802971</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3509.935378802971</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3405.568084676112</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3184.642513720745</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>2926.287604317157</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2568.798189443406</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>2172.406839743753</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>1760.6868409115</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>1355.34957086639</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>637.3221986075147</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>519.8162951250195</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>415.9763366403045</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>311.2744029132417</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>217.6285725961458</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>123.5748008137498</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>70.19870757605942</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>70.19870757605942</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>70.19870757605942</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K12" t="n">
-        <v>70.19870757605942</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L12" t="n">
-        <v>906.9975156589655</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M12" t="n">
-        <v>906.9975156589655</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N12" t="n">
-        <v>906.9975156589655</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O12" t="n">
-        <v>1775.706521912701</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P12" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1797.562090717824</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1655.682155015502</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1470.913958935139</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1265.940820074405</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1069.419442907622</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>905.942096674285</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>766.2492080275774</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>549.2843120622183</v>
+        <v>3846.041991177096</v>
       </c>
       <c r="C13" t="n">
-        <v>377.3117489411343</v>
+        <v>3674.069428056012</v>
       </c>
       <c r="D13" t="n">
-        <v>213.994976067905</v>
+        <v>3510.752655182783</v>
       </c>
       <c r="E13" t="n">
-        <v>213.994976067905</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="F13" t="n">
-        <v>213.994976067905</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G13" t="n">
-        <v>213.994976067905</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H13" t="n">
-        <v>70.19870757605942</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I13" t="n">
-        <v>70.19870757605942</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J13" t="n">
-        <v>127.6900358002174</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K13" t="n">
-        <v>354.2176370060546</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L13" t="n">
-        <v>708.9069583004754</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M13" t="n">
-        <v>1100.092753270726</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N13" t="n">
-        <v>1477.584264146762</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O13" t="n">
-        <v>1833.012392826525</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P13" t="n">
-        <v>2123.611604748426</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q13" t="n">
-        <v>2250.611734989188</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R13" t="n">
-        <v>2250.611734989188</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S13" t="n">
-        <v>2080.476687508323</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T13" t="n">
-        <v>1837.137339734223</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U13" t="n">
-        <v>1764.920816858195</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V13" t="n">
-        <v>1483.209349466224</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W13" t="n">
-        <v>1208.356945638737</v>
+        <v>4072.384759487354</v>
       </c>
       <c r="X13" t="n">
-        <v>965.793049084542</v>
+        <v>4072.384759487354</v>
       </c>
       <c r="Y13" t="n">
-        <v>739.450280774284</v>
+        <v>3846.041991177096</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1826.501685766068</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>1399.600955779368</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1399.600955779368</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>973.6240159272252</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>807.3030197691048</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>402.9639573585534</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>105.0955788325882</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>70.19870757605942</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>70.19870757605942</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>70.19870757605942</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>927.3727161446883</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>1796.081722398424</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>2664.790728652159</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O14" t="n">
-        <v>3509.935378802971</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P14" t="n">
-        <v>3509.935378802971</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q14" t="n">
-        <v>3509.935378802971</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3509.935378802971</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3405.568084676112</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3405.568084676112</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3405.568084676112</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3048.078669802361</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>2651.687320102707</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>2651.687320102707</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2246.350050057598</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>637.3221986075147</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>519.8162951250195</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>415.9763366403045</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>311.2744029132417</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>217.6285725961458</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>123.5748008137498</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>70.19870757605942</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>70.19870757605942</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>70.19870757605942</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>70.19870757605942</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>70.19870757605942</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M15" t="n">
-        <v>141.4683256490987</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N15" t="n">
-        <v>1010.177331902834</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O15" t="n">
-        <v>1878.886338156569</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P15" t="n">
-        <v>1878.886338156569</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
-        <v>1878.886338156569</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1797.562090717824</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1655.682155015502</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1470.913958935139</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1265.940820074405</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1069.419442907622</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>905.942096674285</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>766.2492080275774</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>584.6557342126473</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="C16" t="n">
-        <v>412.6831710915633</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="D16" t="n">
-        <v>412.6831710915633</v>
+        <v>389.4077743925212</v>
       </c>
       <c r="E16" t="n">
-        <v>412.6831710915633</v>
+        <v>389.4077743925212</v>
       </c>
       <c r="F16" t="n">
-        <v>240.8213968661237</v>
+        <v>217.5460001670816</v>
       </c>
       <c r="G16" t="n">
-        <v>169.9672758357835</v>
+        <v>217.5460001670816</v>
       </c>
       <c r="H16" t="n">
-        <v>169.9672758357835</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>70.19870757605942</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>127.6900358002174</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>354.2176370060546</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>708.9069583004723</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1100.092753270723</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1477.584264146759</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1833.012392826522</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2123.611604748423</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2250.611734989185</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2250.611734989185</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2080.47668750832</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>2080.47668750832</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U16" t="n">
-        <v>1800.292239008624</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V16" t="n">
-        <v>1518.580771616653</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W16" t="n">
-        <v>1243.728367789166</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X16" t="n">
-        <v>1001.164471234971</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y16" t="n">
-        <v>774.8217029247129</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5497,16 @@
         <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5513,25 +5515,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>195.4640539534684</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O17" t="n">
-        <v>4406.8563911335</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
         <v>5115.135670291427</v>
@@ -5601,13 +5603,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>102.3027134058285</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N18" t="n">
-        <v>1191.617659878699</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1085.715267670341</v>
+        <v>655.1318596602905</v>
       </c>
       <c r="C19" t="n">
-        <v>913.7427045492574</v>
+        <v>483.1592965392065</v>
       </c>
       <c r="D19" t="n">
-        <v>750.4259316760281</v>
+        <v>483.1592965392065</v>
       </c>
       <c r="E19" t="n">
-        <v>584.2177258288816</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="F19" t="n">
-        <v>412.355951603442</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5686,37 +5688,37 @@
         <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656292</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578193</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818955</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818955</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818955</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2282.715740818955</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>2282.715740818955</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>2019.640305074347</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="W19" t="n">
-        <v>1744.78790124686</v>
+        <v>1314.204493236809</v>
       </c>
       <c r="X19" t="n">
-        <v>1502.224004692665</v>
+        <v>1071.640596682614</v>
       </c>
       <c r="Y19" t="n">
-        <v>1275.881236382407</v>
+        <v>845.2978283723562</v>
       </c>
     </row>
     <row r="20">
@@ -5750,25 +5752,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>786.1869982294937</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>1715.81204584877</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5780,19 +5782,19 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>4362.434577686964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>5115.135670291427</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>603.8490191059097</v>
+        <v>775.6620294727279</v>
       </c>
       <c r="C22" t="n">
-        <v>431.8764559848257</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="D22" t="n">
-        <v>268.5596831115964</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E22" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
         <v>102.3027134058285</v>
@@ -5929,31 +5931,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.677127506134</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025269</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251169</v>
       </c>
       <c r="U22" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751473</v>
       </c>
       <c r="V22" t="n">
-        <v>1311.431288199657</v>
+        <v>1260.306816359502</v>
       </c>
       <c r="W22" t="n">
-        <v>1036.57888437217</v>
+        <v>985.4544125320151</v>
       </c>
       <c r="X22" t="n">
-        <v>794.0149878179755</v>
+        <v>985.4544125320151</v>
       </c>
       <c r="Y22" t="n">
-        <v>794.0149878179755</v>
+        <v>965.8279981847936</v>
       </c>
     </row>
     <row r="23">
@@ -6078,10 +6080,10 @@
         <v>1158.289251381874</v>
       </c>
       <c r="N24" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
         <v>1910.990343986338</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>847.2543031032136</v>
+        <v>601.2341827829796</v>
       </c>
       <c r="C25" t="n">
-        <v>847.2543031032136</v>
+        <v>601.2341827829796</v>
       </c>
       <c r="D25" t="n">
-        <v>683.9375302299843</v>
+        <v>601.2341827829796</v>
       </c>
       <c r="E25" t="n">
-        <v>517.7293243828378</v>
+        <v>435.0259769358331</v>
       </c>
       <c r="F25" t="n">
-        <v>345.8675501573982</v>
+        <v>263.1642027103935</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>263.1642027103935</v>
       </c>
       <c r="H25" t="n">
         <v>202.0712816655526</v>
@@ -6175,22 +6177,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>2065.542080025265</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>1872.724839187125</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>1591.013371795153</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1316.160967967666</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="X25" t="n">
-        <v>1073.597071413472</v>
+        <v>1017.742919805303</v>
       </c>
       <c r="Y25" t="n">
-        <v>847.2543031032136</v>
+        <v>791.4001514950452</v>
       </c>
     </row>
     <row r="26">
@@ -6242,10 +6244,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4573.117879057176</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6312,10 +6314,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>742.8905159778161</v>
+        <v>4017.903765402536</v>
       </c>
       <c r="C28" t="n">
-        <v>570.9179528567321</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="D28" t="n">
-        <v>570.9179528567321</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E28" t="n">
-        <v>570.9179528567321</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F28" t="n">
-        <v>399.0561786312925</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G28" t="n">
-        <v>232.7992089255246</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L28" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M28" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N28" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O28" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P28" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>4945.000622810562</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>4701.661275036462</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>4421.476826536767</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>4421.476826536767</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>4208.069734114601</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>4208.069734114601</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.8905159778161</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="29">
@@ -6473,10 +6475,10 @@
         <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
         <v>5115.135670291427</v>
@@ -6549,7 +6551,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3555.279524219086</v>
+        <v>3270.011978872612</v>
       </c>
       <c r="C31" t="n">
-        <v>3555.279524219086</v>
+        <v>3098.039415751528</v>
       </c>
       <c r="D31" t="n">
-        <v>3391.962751345857</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="E31" t="n">
-        <v>3225.754545498711</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="F31" t="n">
-        <v>3225.754545498711</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="G31" t="n">
-        <v>3059.497575792943</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H31" t="n">
-        <v>3034.491211138023</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I31" t="n">
         <v>2934.722642878299</v>
@@ -6646,25 +6648,25 @@
         <v>5068.0970569786</v>
       </c>
       <c r="S31" t="n">
-        <v>5068.0970569786</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T31" t="n">
-        <v>4824.7577092045</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U31" t="n">
-        <v>4544.573260704805</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V31" t="n">
-        <v>4262.861793312833</v>
+        <v>4203.937016276617</v>
       </c>
       <c r="W31" t="n">
-        <v>3988.009389485347</v>
+        <v>3929.08461244913</v>
       </c>
       <c r="X31" t="n">
-        <v>3745.445492931152</v>
+        <v>3686.520715894936</v>
       </c>
       <c r="Y31" t="n">
-        <v>3745.445492931152</v>
+        <v>3460.177947584677</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6703,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6786,7 +6788,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>832.9089957654462</v>
+        <v>3348.967677140029</v>
       </c>
       <c r="C34" t="n">
-        <v>660.9364326443622</v>
+        <v>3348.967677140029</v>
       </c>
       <c r="D34" t="n">
-        <v>660.9364326443622</v>
+        <v>3348.967677140029</v>
       </c>
       <c r="E34" t="n">
-        <v>494.7282267972157</v>
+        <v>3348.967677140029</v>
       </c>
       <c r="F34" t="n">
-        <v>322.8664525717761</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="G34" t="n">
-        <v>156.6094828660082</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L34" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M34" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N34" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O34" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P34" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U34" t="n">
-        <v>1822.202732251165</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V34" t="n">
-        <v>1540.491264859194</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W34" t="n">
-        <v>1265.638861031707</v>
+        <v>3817.874342004482</v>
       </c>
       <c r="X34" t="n">
-        <v>1023.074964477512</v>
+        <v>3575.310445450287</v>
       </c>
       <c r="Y34" t="n">
-        <v>1023.074964477512</v>
+        <v>3348.967677140029</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F35" t="n">
         <v>839.4070255988738</v>
@@ -6941,46 +6943,46 @@
         <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1581.174581076926</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2585.460682495985</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>3561.711740982686</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>4406.856391133498</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291425</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291425</v>
+        <v>5029.203358561359</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="36">
@@ -7005,7 +7007,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
         <v>102.3027134058285</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3713.838560755144</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C37" t="n">
-        <v>3713.838560755144</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D37" t="n">
-        <v>3550.521787881914</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E37" t="n">
-        <v>3384.313582034768</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F37" t="n">
-        <v>3344.544449335634</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>3178.287479629867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>3034.491211138021</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878297</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102455</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308292</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602713</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572964</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128763</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050664</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291425</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5068.097056978599</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>4897.962009497734</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>4654.622661723633</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>4654.622661723633</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>4372.911194331662</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>4372.911194331662</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>4130.347297777467</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>3904.004529467209</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
         <v>2113.800768076616</v>
@@ -7163,7 +7165,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7178,46 +7180,46 @@
         <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>1007.532766690841</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109899</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.0699265966</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747412</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.49385590534</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354845</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7242,31 +7244,31 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N39" t="n">
-        <v>1158.289251381874</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P39" t="n">
         <v>1910.990343986338</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3797.843420773279</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>3625.870857652195</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D40" t="n">
-        <v>3625.870857652195</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E40" t="n">
-        <v>3459.662651805049</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F40" t="n">
-        <v>3344.544449335634</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G40" t="n">
-        <v>3178.287479629867</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>3034.491211138021</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878297</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102455</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308292</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602713</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572964</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128763</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050664</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291425</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5068.097056978599</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>5068.097056978599</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>4824.757709204498</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U40" t="n">
-        <v>4544.573260704803</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V40" t="n">
-        <v>4262.861793312832</v>
+        <v>2119.408873334067</v>
       </c>
       <c r="W40" t="n">
-        <v>3988.009389485345</v>
+        <v>1844.55646950658</v>
       </c>
       <c r="X40" t="n">
-        <v>3988.009389485345</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y40" t="n">
-        <v>3988.009389485345</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2205.469264107375</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C41" t="n">
-        <v>1778.568534120675</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D41" t="n">
-        <v>1623.507270175318</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E41" t="n">
-        <v>1197.530330323176</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>772.406148512576</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>368.0670861020246</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>70.19870757605939</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>70.19870757605939</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>70.19870757605939</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K41" t="n">
-        <v>70.19870757605939</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L41" t="n">
-        <v>514.1606288544086</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M41" t="n">
-        <v>514.1606288544086</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N41" t="n">
-        <v>1382.869635108143</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O41" t="n">
-        <v>2228.014285258956</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P41" t="n">
-        <v>2936.293564416883</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q41" t="n">
-        <v>3392.379043921067</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R41" t="n">
-        <v>3509.935378802969</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3509.935378802969</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3289.009807847603</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3030.654898444015</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>3030.654898444015</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>3030.654898444015</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>3030.654898444015</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2625.317628398906</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>637.3221986075147</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>519.8162951250195</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>415.9763366403045</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>311.2744029132417</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>217.6285725961458</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>123.5748008137498</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>70.19870757605939</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>70.19870757605939</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>70.19870757605939</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>70.19870757605939</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>70.19870757605939</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>70.19870757605939</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N42" t="n">
-        <v>938.9077138297943</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O42" t="n">
-        <v>1807.616720083529</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P42" t="n">
-        <v>1807.616720083529</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1797.562090717824</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1655.682155015502</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1470.913958935139</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1265.940820074405</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1069.419442907622</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>905.942096674285</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>766.2492080275774</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>651.8335244002151</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C43" t="n">
-        <v>651.8335244002151</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D43" t="n">
-        <v>651.8335244002151</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E43" t="n">
-        <v>485.6253185530686</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F43" t="n">
-        <v>313.763544327629</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G43" t="n">
-        <v>313.763544327629</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H43" t="n">
-        <v>169.9672758357834</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I43" t="n">
-        <v>70.19870757605939</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>127.6900358002174</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>354.2176370060546</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>708.9069583004754</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1100.092753270726</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1477.584264146762</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1833.012392826525</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2123.611604748426</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2250.611734989188</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2203.573121676361</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2203.573121676361</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T43" t="n">
-        <v>2147.654477695888</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U43" t="n">
-        <v>1867.470029196192</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="V43" t="n">
-        <v>1585.758561804221</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="W43" t="n">
-        <v>1310.906157976734</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X43" t="n">
-        <v>1068.342261422539</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y43" t="n">
-        <v>841.9994931122808</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1381.26586948643</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>954.3651394997304</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
-        <v>531.0725186847307</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>105.0955788325882</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>105.0955788325882</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G44" t="n">
-        <v>105.0955788325882</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>105.0955788325882</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I44" t="n">
-        <v>70.19870757605939</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>432.8021663929549</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>1148.310474368454</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1148.310474368454</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>1382.869635108143</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N44" t="n">
-        <v>1382.869635108143</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O44" t="n">
-        <v>2228.014285258956</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
-        <v>2936.293564416883</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>3392.379043921067</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>3509.935378802969</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3405.56808467611</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3372.052267228726</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3372.052267228726</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>3014.562852354976</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>2618.171502655323</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>2206.45150382307</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>1801.11423377796</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>637.3221986075147</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>519.8162951250195</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>415.9763366403045</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>311.2744029132417</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>217.6285725961458</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>123.5748008137498</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>70.19870757605939</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>77.64535053797123</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>349.3428398175623</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>349.3428398175623</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>1010.177331902834</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M45" t="n">
-        <v>1878.886338156569</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N45" t="n">
-        <v>1878.886338156569</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O45" t="n">
-        <v>1878.886338156569</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P45" t="n">
-        <v>1878.886338156569</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>1878.886338156569</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1797.562090717824</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1655.682155015502</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1470.913958935139</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1265.940820074405</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1069.419442907622</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>905.942096674285</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>766.2492080275774</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2169.138637162509</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C46" t="n">
-        <v>1997.166074041425</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D46" t="n">
-        <v>1833.849301168195</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E46" t="n">
-        <v>1667.641095321049</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F46" t="n">
-        <v>1495.779321095609</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G46" t="n">
-        <v>1329.522351389841</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H46" t="n">
-        <v>1329.522351389841</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>1329.522351389841</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>1387.013679613999</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>1613.541280819836</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>1968.230602114257</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>2359.416397084508</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>2736.907907960544</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>3092.336036640307</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>3382.935248562208</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>3509.935378802969</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>3509.935378802969</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>3509.935378802969</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T46" t="n">
-        <v>3509.935378802969</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U46" t="n">
-        <v>3384.775141958485</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="V46" t="n">
-        <v>3103.063674566514</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="W46" t="n">
-        <v>2828.211270739027</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="X46" t="n">
-        <v>2585.647374184832</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y46" t="n">
-        <v>2359.304605874574</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>519.5412919487771</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>362.152477837778</v>
+        <v>500.428219606401</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163583</v>
+        <v>521.167650509992</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8061,25 +8063,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>315.2944278945549</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>506.8734716662958</v>
       </c>
       <c r="N3" t="n">
-        <v>464.1005135391148</v>
+        <v>505.1197193675095</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>506.94858087619</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>225.9068206338004</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8149,10 +8151,10 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>381.5174992961649</v>
+        <v>94.6403295087156</v>
       </c>
       <c r="P4" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
         <v>152.9025226039384</v>
@@ -8216,7 +8218,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>569.51856287543</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
@@ -8225,19 +8227,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>498.6795285947802</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>362.1121742943703</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>498.9752675705655</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
@@ -8304,19 +8306,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>267.0107895760205</v>
       </c>
       <c r="O6" t="n">
-        <v>101.1178171425367</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651629</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>484.1469440493127</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8374,7 +8376,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464869</v>
+        <v>249.7804132464876</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8386,10 +8388,10 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>299.5718579722078</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
         <v>152.9025226039384</v>
@@ -8456,7 +8458,7 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>453.322231905261</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
@@ -8465,13 +8467,13 @@
         <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>547.9365584046774</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8538,13 +8540,13 @@
         <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>461.4026962257055</v>
       </c>
       <c r="O9" t="n">
-        <v>463.2315577343861</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>914.7634675351889</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>891.0724241548241</v>
+        <v>238.1216346371742</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>341.2715712600904</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,25 +8768,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>852.180037343056</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>900.655734422965</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>125.9928778147969</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>904.1443743201269</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>914.9151076001746</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>914.7634675351889</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,22 +9014,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>95.08629371741816</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N15" t="n">
-        <v>898.8268729142844</v>
+        <v>229.9655591801901</v>
       </c>
       <c r="O15" t="n">
-        <v>900.655734422965</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>129.8669649843445</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9176,13 +9178,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>356.8654072451563</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9249,16 +9251,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>228.1560083209543</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>749.810964578424</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>360.2906876703342</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9416,10 +9418,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>466.324307620685</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9486,13 +9488,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574439</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9726,13 +9728,13 @@
         <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O24" t="n">
-        <v>60.04398625350153</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
-        <v>464.8736204150517</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,13 +9962,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10121,13 +10123,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>855.4509062314407</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10197,10 +10199,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10349,7 +10351,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>472.1756697257304</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,10 +10436,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10589,7 +10591,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>809.38634515545</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10601,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>121.8329647736533</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,13 +10828,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>229.9501690078888</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>276.0147300838795</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10896,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>20.61111433333334</v>
@@ -10908,16 +10910,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>220.6341467432656</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>783.4760236661258</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -11060,16 +11062,16 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>486.7584275622687</v>
+        <v>809.3863451554519</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>914.7634675351884</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11078,10 +11080,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,19 +11147,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N42" t="n">
-        <v>898.826872914284</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>900.6557344229645</v>
+        <v>60.04398625350153</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>94.7365514940696</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11300,16 +11302,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>274.3597080910374</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>891.0724241548241</v>
+        <v>763.5414113871921</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11376,13 +11378,13 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>690.024674679151</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>900.5806252130703</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
@@ -11391,13 +11393,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23258,19 +23260,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>315.3782337219712</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864459</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>205.8882463674313</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>251.9653133080435</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,13 +23500,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>256.2151537959547</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23546,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095519</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439303</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -23665,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>94.44882018867334</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>127.0383344904134</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>28.62729487068481</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,16 +23940,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>18.44967133088966</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24133,13 +24135,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>4.044999942059064</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>204.6491904234061</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>81.87631397253463</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24415,16 +24417,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>86.49353558493979</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>111.9376578195548</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>60.8308582912687</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>117.6020047985562</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>110.0981677402021</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1.169760948126083</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>88.59460404134924</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>130.771715111043</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25391,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25552,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>56.1761360384649</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>117.2205539080107</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>265.5490433009462</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25685,13 +25687,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25786,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>185.5464967556903</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>79.23215548632197</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25874,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25916,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>185.5356559729034</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>153.473969538659</v>
+        <v>59.37454630891071</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>502726.4373312639</v>
+        <v>502955.9191764604</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>502726.4373312639</v>
+        <v>503698.9310462099</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>383508.5358912357</v>
+        <v>492041.9560648143</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>383508.5358912356</v>
+        <v>492041.9560648142</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>492041.9560648142</v>
+        <v>492041.9560648143</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>492041.9560648142</v>
+        <v>492041.9560648144</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>492041.9560648141</v>
+        <v>492041.9560648142</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>492041.9560648142</v>
+        <v>492041.9560648143</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>383508.5358912357</v>
+        <v>492041.9560648143</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>383508.5358912356</v>
+        <v>492041.9560648142</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>524198.4012100469</v>
+      </c>
+      <c r="C2" t="n">
         <v>524198.401210047</v>
-      </c>
-      <c r="C2" t="n">
-        <v>524198.4012100469</v>
       </c>
       <c r="D2" t="n">
         <v>524198.401210047</v>
       </c>
       <c r="E2" t="n">
-        <v>394257.7110981603</v>
+        <v>505827.3628237029</v>
       </c>
       <c r="F2" t="n">
-        <v>394257.7110981602</v>
+        <v>505827.3628237027</v>
       </c>
       <c r="G2" t="n">
-        <v>505827.3628237025</v>
+        <v>505827.3628237026</v>
       </c>
       <c r="H2" t="n">
-        <v>505827.3628237025</v>
+        <v>505827.3628237026</v>
       </c>
       <c r="I2" t="n">
-        <v>505827.3628237026</v>
+        <v>505827.3628237027</v>
       </c>
       <c r="J2" t="n">
         <v>505827.3628237027</v>
       </c>
       <c r="K2" t="n">
+        <v>505827.3628237027</v>
+      </c>
+      <c r="L2" t="n">
         <v>505827.3628237026</v>
       </c>
-      <c r="L2" t="n">
-        <v>505827.3628237027</v>
-      </c>
       <c r="M2" t="n">
-        <v>505827.3628237029</v>
+        <v>505827.3628237025</v>
       </c>
       <c r="N2" t="n">
         <v>505827.3628237027</v>
       </c>
       <c r="O2" t="n">
-        <v>394257.7110981602</v>
+        <v>505827.3628237026</v>
       </c>
       <c r="P2" t="n">
-        <v>394257.7110981601</v>
+        <v>505827.3628237026</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361228</v>
       </c>
       <c r="D3" t="n">
-        <v>29456.39286176439</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95919.9833986305</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>109990.3304731534</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701984</v>
       </c>
       <c r="L3" t="n">
-        <v>24000.08990045009</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>80058.2880951453</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168860.431333321</v>
+        <v>163968.7154446949</v>
       </c>
       <c r="C4" t="n">
-        <v>168860.431333321</v>
+        <v>148130.4125690142</v>
       </c>
       <c r="D4" t="n">
-        <v>148130.4125690141</v>
+        <v>148130.4125690142</v>
       </c>
       <c r="E4" t="n">
-        <v>11764.36627917141</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="F4" t="n">
-        <v>11764.36627917137</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="G4" t="n">
-        <v>15116.17365792736</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="H4" t="n">
-        <v>15116.17365792737</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="I4" t="n">
         <v>15116.17365792743</v>
@@ -26442,22 +26444,22 @@
         <v>15116.17365792743</v>
       </c>
       <c r="K4" t="n">
+        <v>15116.17365792743</v>
+      </c>
+      <c r="L4" t="n">
         <v>15116.17365792744</v>
       </c>
-      <c r="L4" t="n">
-        <v>15116.17365792743</v>
-      </c>
       <c r="M4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792739</v>
       </c>
       <c r="N4" t="n">
         <v>15116.17365792743</v>
       </c>
       <c r="O4" t="n">
-        <v>11764.36627917144</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="P4" t="n">
-        <v>11764.36627917144</v>
+        <v>15116.17365792744</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>53351.01775780515</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>53351.01775780515</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>53351.01775780513</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>53351.01775780513</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>139031.5349883772</v>
+        <v>135063.7668735996</v>
       </c>
       <c r="C6" t="n">
-        <v>293657.2556064976</v>
+        <v>285214.9039299923</v>
       </c>
       <c r="D6" t="n">
-        <v>279165.3447418404</v>
+        <v>308621.7376036047</v>
       </c>
       <c r="E6" t="n">
-        <v>233222.3436625532</v>
+        <v>197221.7704207051</v>
       </c>
       <c r="F6" t="n">
-        <v>329142.3270611836</v>
+        <v>412961.1269773456</v>
       </c>
       <c r="G6" t="n">
-        <v>302970.7965041921</v>
+        <v>412961.1269773455</v>
       </c>
       <c r="H6" t="n">
-        <v>412961.1269773454</v>
+        <v>412961.1269773455</v>
       </c>
       <c r="I6" t="n">
-        <v>412961.1269773454</v>
+        <v>412961.1269773456</v>
       </c>
       <c r="J6" t="n">
-        <v>292238.6100345887</v>
+        <v>286383.8583970569</v>
       </c>
       <c r="K6" t="n">
-        <v>412961.1269773454</v>
+        <v>394314.5266203258</v>
       </c>
       <c r="L6" t="n">
-        <v>388961.0370768955</v>
+        <v>412961.1269773455</v>
       </c>
       <c r="M6" t="n">
-        <v>332902.8388822005</v>
+        <v>232897.2555221777</v>
       </c>
       <c r="N6" t="n">
         <v>412961.1269773456</v>
       </c>
       <c r="O6" t="n">
-        <v>329142.3270611836</v>
+        <v>412961.1269773454</v>
       </c>
       <c r="P6" t="n">
-        <v>329142.3270611835</v>
+        <v>412961.1269773455</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>877.4838447007428</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>877.4838447007428</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26820,16 +26822,16 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>877.4838447007423</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>877.4838447007423</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="D4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>321.2560315851487</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>401.300072872114</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>321.2560315851483</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>321.2560315851487</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>401.300072872114</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>79.87198984533688</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>345.4883608353618</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27435,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -27537,7 +27539,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>18.88207687678725</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,16 +27590,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>70.37729136173721</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -27616,25 +27618,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>318.5130220887416</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>375.6935338973658</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27676,13 +27678,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,13 +27779,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -27828,19 +27830,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>171.2915140032632</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>168.7722368314695</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>385.0527817684122</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>57.7537732500742</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -27916,7 +27918,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>108.1431374666141</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>207.5977058445606</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -28512,7 +28514,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.574995969880688e-12</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28567,7 +28569,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28758,7 +28760,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>-2.322502854147534e-12</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28852,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.441032625147966e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>324.7212149383462</v>
+        <v>462.9969567069692</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34781,25 +34783,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>292.7793411803254</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="N3" t="n">
-        <v>442.7574853255731</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>204.9421661810884</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34869,10 +34871,10 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>359.0183117977405</v>
+        <v>72.14114201029115</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
         <v>128.2829598391535</v>
@@ -34936,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,19 +34947,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>324.7212149383462</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35024,19 +35026,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>245.6677613624788</v>
       </c>
       <c r="O6" t="n">
-        <v>77.9459274203145</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603342</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937756</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35106,10 +35108,10 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>277.0726704737833</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
         <v>128.2829598391535</v>
@@ -35176,7 +35178,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>415.0101894726381</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35187,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35258,13 +35260,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>440.0596680121639</v>
       </c>
       <c r="O9" t="n">
-        <v>440.0596680121639</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>877.4838447007428</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>853.6814647988001</v>
+        <v>200.7306752811501</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>305.1468966554924</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>829.083256830728</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>877.4838447007428</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>104.2220366099683</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>865.832331887504</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>877.4838447007428</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>877.4838447007428</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,22 +35734,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>71.98951320509018</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N15" t="n">
-        <v>877.4838447007428</v>
+        <v>208.6225309666485</v>
       </c>
       <c r="O15" t="n">
-        <v>877.4838447007428</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35808,7 +35810,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
-        <v>358.2720417115331</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
         <v>395.137166636617</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>94.10236418953517</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35896,13 +35898,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>319.4744478891323</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35969,16 +35971,16 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>726.6390748562018</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36054,7 +36056,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
-        <v>359.0183117977381</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
         <v>293.5345574968697</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>324.5260868755249</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36136,10 +36138,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>428.7489458104537</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36206,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439022</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36297,7 +36299,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391576</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36446,13 +36448,13 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O24" t="n">
-        <v>36.8720965312793</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
-        <v>428.7489458104537</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36841,13 +36843,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>818.1712833969947</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>436.0509951211323</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37156,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37309,7 +37311,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>771.0743027228272</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37321,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>86.80031487885682</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37546,13 +37548,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>191.6381265752659</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>238.7351072494335</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37628,16 +37630,16 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>197.5373662309376</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>760.3041339439036</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,16 +37782,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>448.4463851296457</v>
+        <v>771.074302722829</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>877.4838447007423</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37798,10 +37800,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,19 +37867,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N42" t="n">
-        <v>877.4838447007423</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>877.4838447007423</v>
+        <v>36.8720965312793</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>71.9895132050911</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38020,16 +38022,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>236.9284451916056</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>853.6814647988001</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38096,13 +38098,13 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>667.5095879649214</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>877.4838447007423</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38111,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2707588.929782854</v>
+        <v>2706892.268577763</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114751</v>
+        <v>612367.9462114759</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5722441.74597236</v>
+        <v>5722441.745972359</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335.7778908032778</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>175.9296055108022</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
@@ -831,13 +831,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>123.4762289301399</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>36.37832288194293</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>301.8881105187712</v>
       </c>
       <c r="D5" t="n">
-        <v>43.36616070948388</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>107.6028387147881</v>
+        <v>115.1055716303395</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
@@ -1147,7 +1147,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -1186,19 +1186,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>160.962541995739</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>403.5070686661866</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>80.12117155833093</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -1341,7 +1341,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1359,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1372,16 +1372,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -1429,7 +1429,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1536,7 +1536,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>168.4336970060571</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>33.66472767094307</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>20.13856648116858</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1666,7 +1666,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.9145207250137</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -1675,7 +1675,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446594</v>
       </c>
     </row>
     <row r="15">
@@ -1767,22 +1767,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>15.31997131651376</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1815,16 +1815,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>257.4638774372627</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486156</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1861,7 +1861,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407063</v>
+        <v>294.889694740705</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>135.9188289179902</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2061,7 +2061,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2083,7 +2083,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -2149,7 +2149,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446598</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2244,10 +2244,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2304,10 +2304,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.43015020374928</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2478,13 +2478,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>60.48199183439251</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2538,7 +2538,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2718,7 +2718,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -2730,10 +2730,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>39.40756109869098</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2772,16 +2772,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>211.2730214979434</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2955,13 +2955,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3009,7 +3009,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>168.7961849778493</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>168.9733955350591</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3277,7 +3277,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>400.2956717864458</v>
@@ -3429,13 +3429,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>168.9164623971668</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3565,7 +3565,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>161.6737988100407</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886491</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3748,7 +3748,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453622</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3900,7 +3900,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -3909,16 +3909,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>192.8717243028901</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>1.661713759139162</v>
       </c>
     </row>
     <row r="44">
@@ -4030,7 +4030,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458135</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>24.43802729683394</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -4191,7 +4191,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>218.008057705788</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>932.2144580460983</v>
+        <v>1336.254862086502</v>
       </c>
       <c r="C2" t="n">
-        <v>505.3137280593985</v>
+        <v>909.3541320998027</v>
       </c>
       <c r="D2" t="n">
         <v>486.0615112848029</v>
       </c>
       <c r="E2" t="n">
-        <v>60.08457143266044</v>
+        <v>464.1249754730645</v>
       </c>
       <c r="F2" t="n">
-        <v>39.00079366246474</v>
+        <v>443.0411977028688</v>
       </c>
       <c r="G2" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="H2" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J2" t="n">
         <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>880.2445183516411</v>
+        <v>401.305594109213</v>
       </c>
       <c r="L2" t="n">
-        <v>880.2445183516411</v>
+        <v>401.305594109213</v>
       </c>
       <c r="M2" t="n">
-        <v>1338.611505491541</v>
+        <v>521.1434366268322</v>
       </c>
       <c r="N2" t="n">
-        <v>1338.611505491541</v>
+        <v>1000.08236086926</v>
       </c>
       <c r="O2" t="n">
-        <v>1817.550429733969</v>
+        <v>1479.021285111689</v>
       </c>
       <c r="P2" t="n">
-        <v>1817.550429733969</v>
+        <v>1479.021285111689</v>
       </c>
       <c r="Q2" t="n">
-        <v>1817.550429733969</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="S2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="T2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="U2" t="n">
-        <v>1676.751855212284</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="V2" t="n">
-        <v>1676.751855212284</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="W2" t="n">
-        <v>1280.36050551263</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="X2" t="n">
-        <v>1272.680910720782</v>
+        <v>1757.400092382738</v>
       </c>
       <c r="Y2" t="n">
-        <v>1271.384044716076</v>
+        <v>1756.103226378033</v>
       </c>
     </row>
     <row r="3">
@@ -4391,46 +4391,46 @@
         <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>384.4797643565624</v>
+        <v>384.4797643565625</v>
       </c>
       <c r="E3" t="n">
-        <v>279.7778306294996</v>
+        <v>279.7778306294997</v>
       </c>
       <c r="F3" t="n">
         <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000783</v>
+        <v>92.07822853000785</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="I3" t="n">
-        <v>38.70213529231743</v>
+        <v>46.14877825422928</v>
       </c>
       <c r="J3" t="n">
-        <v>38.70213529231743</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="K3" t="n">
-        <v>38.70213529231743</v>
+        <v>796.7851917762487</v>
       </c>
       <c r="L3" t="n">
-        <v>328.5536830608396</v>
+        <v>889.5119173879706</v>
       </c>
       <c r="M3" t="n">
-        <v>807.4926073032677</v>
+        <v>889.5119173879706</v>
       </c>
       <c r="N3" t="n">
-        <v>1286.431531545696</v>
+        <v>889.5119173879706</v>
       </c>
       <c r="O3" t="n">
-        <v>1765.370455788124</v>
+        <v>1368.450841630399</v>
       </c>
       <c r="P3" t="n">
-        <v>1765.370455788124</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="Q3" t="n">
-        <v>1765.370455788124</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
         <v>1847.389765872827</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>936.5534831847388</v>
+        <v>1022.11468955683</v>
       </c>
       <c r="C4" t="n">
-        <v>764.5809200636547</v>
+        <v>850.1421264357463</v>
       </c>
       <c r="D4" t="n">
-        <v>601.2641471904254</v>
+        <v>686.825353562517</v>
       </c>
       <c r="E4" t="n">
-        <v>435.055941343279</v>
+        <v>520.6171477153705</v>
       </c>
       <c r="F4" t="n">
-        <v>263.1941671178394</v>
+        <v>348.7553734899309</v>
       </c>
       <c r="G4" t="n">
-        <v>263.1941671178394</v>
+        <v>182.498403784163</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520415</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647545</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223126</v>
+        <v>165.7127968735003</v>
       </c>
       <c r="L4" t="n">
-        <v>677.4103860167334</v>
+        <v>520.4021181679211</v>
       </c>
       <c r="M4" t="n">
-        <v>1068.596180986984</v>
+        <v>911.5879131381719</v>
       </c>
       <c r="N4" t="n">
-        <v>1446.08769186302</v>
+        <v>1289.079424014208</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.507422453208</v>
+        <v>1644.507552693971</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375109</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="R4" t="n">
-        <v>1888.068151303044</v>
+        <v>1888.068151303045</v>
       </c>
       <c r="S4" t="n">
-        <v>1717.933103822179</v>
+        <v>1717.93310382218</v>
       </c>
       <c r="T4" t="n">
-        <v>1717.933103822179</v>
+        <v>1681.187323133349</v>
       </c>
       <c r="U4" t="n">
-        <v>1437.748655322484</v>
+        <v>1681.187323133349</v>
       </c>
       <c r="V4" t="n">
-        <v>1437.748655322484</v>
+        <v>1681.187323133349</v>
       </c>
       <c r="W4" t="n">
-        <v>1162.896251494997</v>
+        <v>1681.187323133349</v>
       </c>
       <c r="X4" t="n">
-        <v>1162.896251494997</v>
+        <v>1438.623426579154</v>
       </c>
       <c r="Y4" t="n">
-        <v>936.5534831847388</v>
+        <v>1212.280658268896</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1295.32778354778</v>
+        <v>412.0068991484208</v>
       </c>
       <c r="C5" t="n">
-        <v>1272.467457601484</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D5" t="n">
-        <v>1228.663254864631</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E5" t="n">
-        <v>1206.726719052893</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>781.6025372422929</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>572.914647509062</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>572.914647509062</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>572.914647509062</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N5" t="n">
-        <v>1123.5801824935</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O5" t="n">
-        <v>1674.245717477938</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4597,22 +4597,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2120.543958335517</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>2120.543958335517</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>2120.543958335517</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W5" t="n">
-        <v>1724.152608635864</v>
+        <v>1244.872128276909</v>
       </c>
       <c r="X5" t="n">
-        <v>1716.473013844015</v>
+        <v>1237.19253348506</v>
       </c>
       <c r="Y5" t="n">
-        <v>1311.135743798905</v>
+        <v>831.8552634399508</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>44.49822504924753</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="M6" t="n">
-        <v>44.49822504924753</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="N6" t="n">
-        <v>287.7093087981016</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="O6" t="n">
-        <v>838.3748437825398</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4728,46 +4728,46 @@
         <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T7" t="n">
-        <v>1981.571904688276</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="U7" t="n">
-        <v>1701.387456188581</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="V7" t="n">
-        <v>1592.697720113037</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>1317.84531628555</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>1317.84531628555</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
         <v>1317.84531628555</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1270.775797585523</v>
+        <v>462.6949895047144</v>
       </c>
       <c r="C8" t="n">
-        <v>843.8750675988227</v>
+        <v>439.8346635584186</v>
       </c>
       <c r="D8" t="n">
-        <v>824.622850824227</v>
+        <v>420.5824467838229</v>
       </c>
       <c r="E8" t="n">
-        <v>802.6863150124886</v>
+        <v>398.6459109720846</v>
       </c>
       <c r="F8" t="n">
-        <v>781.6025372422929</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G8" t="n">
         <v>377.2634748317415</v>
@@ -4804,25 +4804,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336857</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="M8" t="n">
-        <v>595.1637600336857</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N8" t="n">
-        <v>1145.829295018124</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O8" t="n">
-        <v>1651.269438076291</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q8" t="n">
         <v>2107.354917580474</v>
@@ -4834,22 +4834,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1957.955532077195</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1699.600622673607</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>1699.600622673607</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W8" t="n">
-        <v>1699.600622673607</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X8" t="n">
-        <v>1287.880623841354</v>
+        <v>479.799815760546</v>
       </c>
       <c r="Y8" t="n">
-        <v>1286.583757836649</v>
+        <v>478.5029497558403</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L9" t="n">
-        <v>866.8612493132769</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M9" t="n">
-        <v>1417.526784297715</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N9" t="n">
         <v>1853.185855629757</v>
@@ -4989,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V10" t="n">
-        <v>1726.026124276713</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1451.173720449226</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>1208.609823895031</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>1208.609823895031</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5020,13 +5020,13 @@
         <v>2540.701498063317</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
         <v>839.4070255988738</v>
@@ -5041,25 +5041,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>464.9061722227241</v>
+        <v>366.6855125151251</v>
       </c>
       <c r="K11" t="n">
-        <v>1180.414480198223</v>
+        <v>1082.193820490624</v>
       </c>
       <c r="L11" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M11" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N11" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O11" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P11" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
         <v>4997.579335409525</v>
@@ -5120,22 +5120,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.79262694784</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N12" t="n">
-        <v>1194.79262694784</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O12" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
         <v>1910.990343986338</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3846.041991177096</v>
+        <v>847.4138558574795</v>
       </c>
       <c r="C13" t="n">
-        <v>3674.069428056012</v>
+        <v>675.4412927363954</v>
       </c>
       <c r="D13" t="n">
-        <v>3510.752655182783</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="E13" t="n">
-        <v>3344.544449335636</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F13" t="n">
-        <v>3344.544449335636</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G13" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H13" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>4897.962009497735</v>
+        <v>2065.542080025264</v>
       </c>
       <c r="T13" t="n">
-        <v>4654.622661723635</v>
+        <v>1822.202732251164</v>
       </c>
       <c r="U13" t="n">
-        <v>4374.43821322394</v>
+        <v>1788.197956825969</v>
       </c>
       <c r="V13" t="n">
-        <v>4092.726745831969</v>
+        <v>1506.486489433998</v>
       </c>
       <c r="W13" t="n">
-        <v>4072.384759487354</v>
+        <v>1506.486489433998</v>
       </c>
       <c r="X13" t="n">
-        <v>4072.384759487354</v>
+        <v>1263.922592879803</v>
       </c>
       <c r="Y13" t="n">
-        <v>3846.041991177096</v>
+        <v>1037.579824569545</v>
       </c>
     </row>
     <row r="14">
@@ -5281,22 +5281,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L14" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M14" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N14" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O14" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P14" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
         <v>4997.579335409525</v>
@@ -5314,13 +5314,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
         <v>2960.549862354846</v>
@@ -5354,25 +5354,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M15" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N15" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O15" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P15" t="n">
         <v>1364.825557038856</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>552.7245472657505</v>
+        <v>1041.68756743822</v>
       </c>
       <c r="C16" t="n">
-        <v>552.7245472657505</v>
+        <v>869.7150043171358</v>
       </c>
       <c r="D16" t="n">
-        <v>389.4077743925212</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E16" t="n">
-        <v>389.4077743925212</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F16" t="n">
-        <v>217.5460001670816</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G16" t="n">
-        <v>217.5460001670816</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H16" t="n">
         <v>202.0712816655526</v>
@@ -5454,34 +5454,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578192</v>
       </c>
       <c r="Q16" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818954</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2235.677127506127</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.677127506127</v>
       </c>
       <c r="T16" t="n">
-        <v>1822.202732251165</v>
+        <v>2235.677127506127</v>
       </c>
       <c r="U16" t="n">
-        <v>1542.018283751469</v>
+        <v>2235.677127506127</v>
       </c>
       <c r="V16" t="n">
-        <v>1260.306816359498</v>
+        <v>1975.612604842225</v>
       </c>
       <c r="W16" t="n">
-        <v>985.454412532011</v>
+        <v>1700.760201014738</v>
       </c>
       <c r="X16" t="n">
-        <v>742.8905159778161</v>
+        <v>1458.196304460543</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.8905159778161</v>
+        <v>1231.853536150285</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988734</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.067963188322</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5515,28 +5515,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>195.4640539534684</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1125.089101572745</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2129.375202991803</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3105.626261478504</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O17" t="n">
-        <v>3950.770911629316</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787244</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>655.1318596602905</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>483.1592965392065</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>483.1592965392065</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>345.8675501573982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5700,25 +5700,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1589.056897064296</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1314.204493236809</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1071.640596682614</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>845.2978283723562</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
         <v>2113.800768076616</v>
@@ -5752,28 +5752,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>786.1869982294937</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L20" t="n">
-        <v>1715.81204584877</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M20" t="n">
-        <v>2720.098147267829</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N20" t="n">
-        <v>3696.34920575453</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O20" t="n">
-        <v>4541.493855905342</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5797,7 +5797,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>775.6620294727279</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>603.6894663516439</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>440.3726934784146</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
         <v>274.1644876312681</v>
@@ -5931,31 +5931,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818961</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.677127506134</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025269</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251169</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751473</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359502</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>985.4544125320151</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>985.4544125320151</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>965.8279981847936</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>601.2341827829796</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>601.2341827829796</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>601.2341827829796</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>435.0259769358331</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>263.1642027103935</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>263.1642027103935</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1260.306816359498</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>1017.742919805303</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>791.4001514950452</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6229,25 +6229,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4017.903765402536</v>
+        <v>778.6022263052665</v>
       </c>
       <c r="C28" t="n">
-        <v>3845.931202281452</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="D28" t="n">
-        <v>3682.614429408222</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E28" t="n">
-        <v>3516.406223561076</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F28" t="n">
-        <v>3344.544449335636</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G28" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>4945.000622810562</v>
+        <v>2242.910123547552</v>
       </c>
       <c r="T28" t="n">
-        <v>4701.661275036462</v>
+        <v>1999.570775773452</v>
       </c>
       <c r="U28" t="n">
-        <v>4421.476826536767</v>
+        <v>1719.386327273756</v>
       </c>
       <c r="V28" t="n">
-        <v>4421.476826536767</v>
+        <v>1437.674859881785</v>
       </c>
       <c r="W28" t="n">
-        <v>4208.069734114601</v>
+        <v>1437.674859881785</v>
       </c>
       <c r="X28" t="n">
-        <v>4208.069734114601</v>
+        <v>1195.11096332759</v>
       </c>
       <c r="Y28" t="n">
-        <v>4208.069734114601</v>
+        <v>968.7681950173321</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3270.011978872612</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>3098.039415751528</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>2934.722642878299</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>2934.722642878299</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>4374.43821322394</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>4203.937016276617</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>3929.08461244913</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>3686.520715894936</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>3460.177947584677</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6703,25 +6703,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>102.3027134058285</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L32" t="n">
-        <v>1031.927761025105</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M32" t="n">
-        <v>2036.213862444163</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N32" t="n">
-        <v>3012.464920930865</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O32" t="n">
-        <v>3857.609571081677</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P32" t="n">
-        <v>4565.888850239604</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3348.967677140029</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>3348.967677140029</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>3348.967677140029</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>3348.967677140029</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>4374.43821322394</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>4092.726745831969</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>3817.874342004482</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>3575.310445450287</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>3348.967677140029</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G35" t="n">
         <v>435.0679631883225</v>
@@ -6937,52 +6937,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P35" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q35" t="n">
-        <v>5029.203358561359</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
         <v>102.3027134058285</v>
@@ -7095,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,7 +7162,7 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G38" t="n">
         <v>435.0679631883225</v>
@@ -7174,43 +7174,43 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
         <v>3777.607131232208</v>
@@ -7253,28 +7253,28 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>2119.408873334067</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1844.55646950658</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
         <v>1264.531207409474</v>
@@ -7411,52 +7411,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2585.460682495986</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
-        <v>3561.711740982687</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O41" t="n">
-        <v>4406.8563911335</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P41" t="n">
-        <v>5115.135670291427</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q41" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M42" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N42" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O42" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P42" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1185.483835930065</v>
+        <v>598.0846618319721</v>
       </c>
       <c r="C43" t="n">
-        <v>1013.511272808982</v>
+        <v>598.0846618319721</v>
       </c>
       <c r="D43" t="n">
-        <v>850.1944999357522</v>
+        <v>434.7678889587428</v>
       </c>
       <c r="E43" t="n">
-        <v>683.9862940886057</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F43" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G43" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7596,25 +7596,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T43" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U43" t="n">
-        <v>2039.376393044857</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V43" t="n">
-        <v>2039.376393044857</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W43" t="n">
-        <v>1844.556469506584</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X43" t="n">
-        <v>1601.992572952389</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y43" t="n">
-        <v>1375.649804642131</v>
+        <v>788.2506305440377</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
         <v>1690.508147261616</v>
@@ -7636,19 +7636,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
         <v>1180.414480198223</v>
@@ -7657,28 +7657,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N44" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O44" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P44" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
@@ -7733,16 +7733,16 @@
         <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>971.931772215671</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M45" t="n">
-        <v>971.931772215671</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N45" t="n">
-        <v>971.931772215671</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O45" t="n">
-        <v>971.931772215671</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P45" t="n">
         <v>1364.825557038856</v>
@@ -7785,16 +7785,16 @@
         <v>1185.483835930065</v>
       </c>
       <c r="C46" t="n">
-        <v>1013.511272808982</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D46" t="n">
-        <v>850.1944999357522</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E46" t="n">
-        <v>683.9862940886057</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F46" t="n">
-        <v>512.1245198631661</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G46" t="n">
         <v>345.8675501573982</v>
@@ -7806,10 +7806,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
         <v>741.0109641302445</v>
@@ -7830,22 +7830,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2235.67712750613</v>
+        <v>2258.030864761549</v>
       </c>
       <c r="S46" t="n">
-        <v>2065.542080025265</v>
+        <v>2087.895817280684</v>
       </c>
       <c r="T46" t="n">
-        <v>1822.202732251165</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="U46" t="n">
-        <v>1601.992572952389</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="V46" t="n">
-        <v>1601.992572952389</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="W46" t="n">
-        <v>1601.992572952389</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X46" t="n">
         <v>1601.992572952389</v>
@@ -7981,16 +7981,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487771</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>500.428219606401</v>
+        <v>158.4795886748048</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>521.056313988414</v>
       </c>
       <c r="O2" t="n">
         <v>521.167650509992</v>
@@ -7999,10 +7999,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>506.1759249873012</v>
       </c>
       <c r="L3" t="n">
-        <v>315.2944278945549</v>
+        <v>116.1784459179891</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662958</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>505.1197193675095</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>506.94858087619</v>
+        <v>506.9485808761901</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>505.5475323587966</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>149.2582520094624</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8151,13 +8151,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>94.6403295087156</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>569.51856287543</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>181.8548408418185</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>372.2051051843581</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>267.0107895760205</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8376,7 +8376,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464876</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8394,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>87.05611188819479</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
@@ -8467,13 +8467,13 @@
         <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>547.9365584046774</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8531,10 +8531,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>180.6729970931265</v>
       </c>
       <c r="L9" t="n">
         <v>578.7428998298237</v>
@@ -8543,7 +8543,7 @@
         <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>461.4026962257055</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>296.4732919192194</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
@@ -8698,19 +8698,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>238.1216346371742</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8768,7 +8768,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
@@ -8777,16 +8777,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>852.180037343056</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8929,10 +8929,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M14" t="n">
         <v>1051.861668373228</v>
@@ -8944,10 +8944,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9002,28 +9002,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>229.9655591801901</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q15" t="n">
         <v>491.5808533018869</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>129.8669649843445</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9175,7 +9175,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>370.4410136063929</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9184,10 +9184,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>228.1560083209543</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>360.2906876703342</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9418,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
@@ -9491,19 +9491,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9649,19 +9649,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>370.4410136063929</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>728.3675687028222</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10369,10 +10369,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>472.1756697257304</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,22 +10594,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055946</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>121.8329647736533</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10831,10 +10831,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792397994</v>
       </c>
       <c r="N38" t="n">
-        <v>276.0147300838795</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10846,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>220.6341467432656</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,16 +11059,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>809.3863451554519</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
@@ -11080,10 +11080,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>397.6042905607436</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>60.04398625350153</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,13 +11305,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055946</v>
       </c>
       <c r="N44" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>763.5414113871921</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11381,7 +11381,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11393,7 +11393,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>418.6332501171365</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -23472,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>243.7178763437557</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>251.9653133080435</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>127.0383344904134</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>21.4304752807887</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23898,19 +23898,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>28.62729487068481</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>204.6491904234061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>81.87631397253463</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>129.0261359073655</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>60.8308582912687</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>110.0981677402021</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -25086,16 +25086,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>1.169760948126083</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>110.0981677402028</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>71.98949189919222</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>117.2205539080107</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>79.23215548632197</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4176268680162</v>
       </c>
     </row>
     <row r="44">
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>22.13019988286464</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>59.37454630891071</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -26088,7 +26088,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>492041.9560648143</v>
+        <v>492041.9560648142</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>492041.9560648143</v>
+        <v>492041.9560648142</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>492041.9560648144</v>
+        <v>492041.9560648142</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>492041.9560648143</v>
+        <v>492041.9560648142</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>492041.9560648143</v>
+        <v>492041.9560648142</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>524198.4012100469</v>
+        <v>524198.4012100471</v>
       </c>
       <c r="C2" t="n">
-        <v>524198.401210047</v>
+        <v>524198.4012100471</v>
       </c>
       <c r="D2" t="n">
         <v>524198.401210047</v>
       </c>
       <c r="E2" t="n">
-        <v>505827.3628237029</v>
+        <v>505827.3628237026</v>
       </c>
       <c r="F2" t="n">
+        <v>505827.3628237025</v>
+      </c>
+      <c r="G2" t="n">
         <v>505827.3628237027</v>
-      </c>
-      <c r="G2" t="n">
-        <v>505827.3628237026</v>
       </c>
       <c r="H2" t="n">
         <v>505827.3628237026</v>
       </c>
       <c r="I2" t="n">
-        <v>505827.3628237027</v>
+        <v>505827.3628237028</v>
       </c>
       <c r="J2" t="n">
         <v>505827.3628237027</v>
       </c>
       <c r="K2" t="n">
+        <v>505827.3628237026</v>
+      </c>
+      <c r="L2" t="n">
         <v>505827.3628237027</v>
       </c>
-      <c r="L2" t="n">
-        <v>505827.3628237026</v>
-      </c>
       <c r="M2" t="n">
-        <v>505827.3628237025</v>
+        <v>505827.3628237027</v>
       </c>
       <c r="N2" t="n">
         <v>505827.3628237027</v>
       </c>
       <c r="O2" t="n">
-        <v>505827.3628237026</v>
+        <v>505827.3628237025</v>
       </c>
       <c r="P2" t="n">
-        <v>505827.3628237026</v>
+        <v>505827.3628237025</v>
       </c>
     </row>
     <row r="3">
@@ -26368,7 +26368,7 @@
         <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361228</v>
+        <v>23406.83367361224</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701984</v>
+        <v>18646.60035701981</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551677</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163968.7154446949</v>
+        <v>163968.7154446948</v>
       </c>
       <c r="C4" t="n">
-        <v>148130.4125690142</v>
+        <v>148130.4125690141</v>
       </c>
       <c r="D4" t="n">
         <v>148130.4125690142</v>
       </c>
       <c r="E4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792738</v>
       </c>
       <c r="F4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792739</v>
       </c>
       <c r="G4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.1736579274</v>
       </c>
       <c r="H4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.1736579274</v>
       </c>
       <c r="I4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="J4" t="n">
         <v>15116.17365792743</v>
       </c>
       <c r="K4" t="n">
+        <v>15116.17365792744</v>
+      </c>
+      <c r="L4" t="n">
         <v>15116.17365792743</v>
       </c>
-      <c r="L4" t="n">
-        <v>15116.17365792744</v>
-      </c>
       <c r="M4" t="n">
-        <v>15116.17365792739</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="N4" t="n">
         <v>15116.17365792743</v>
       </c>
       <c r="O4" t="n">
+        <v>15116.17365792744</v>
+      </c>
+      <c r="P4" t="n">
         <v>15116.17365792743</v>
-      </c>
-      <c r="P4" t="n">
-        <v>15116.17365792744</v>
       </c>
     </row>
     <row r="5">
@@ -26502,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>135063.7668735996</v>
+        <v>135063.7668735998</v>
       </c>
       <c r="C6" t="n">
-        <v>285214.9039299923</v>
+        <v>285214.9039299926</v>
       </c>
       <c r="D6" t="n">
         <v>308621.7376036047</v>
       </c>
       <c r="E6" t="n">
-        <v>197221.7704207051</v>
+        <v>197170.7397585207</v>
       </c>
       <c r="F6" t="n">
-        <v>412961.1269773456</v>
+        <v>412910.0963151612</v>
       </c>
       <c r="G6" t="n">
-        <v>412961.1269773455</v>
+        <v>412910.0963151613</v>
       </c>
       <c r="H6" t="n">
-        <v>412961.1269773455</v>
+        <v>412910.0963151612</v>
       </c>
       <c r="I6" t="n">
-        <v>412961.1269773456</v>
+        <v>412910.0963151614</v>
       </c>
       <c r="J6" t="n">
-        <v>286383.8583970569</v>
+        <v>286332.8277348725</v>
       </c>
       <c r="K6" t="n">
-        <v>394314.5266203258</v>
+        <v>394263.4959581413</v>
       </c>
       <c r="L6" t="n">
-        <v>412961.1269773455</v>
+        <v>412910.0963151613</v>
       </c>
       <c r="M6" t="n">
-        <v>232897.2555221777</v>
+        <v>232846.2248599937</v>
       </c>
       <c r="N6" t="n">
-        <v>412961.1269773456</v>
+        <v>412910.0963151613</v>
       </c>
       <c r="O6" t="n">
-        <v>412961.1269773454</v>
+        <v>412910.0963151612</v>
       </c>
       <c r="P6" t="n">
-        <v>412961.1269773455</v>
+        <v>412910.0963151612</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.4511219616262</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.4511219616262</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.4511219616262</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>79.87198984533688</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -27435,16 +27435,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>231.673193333128</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>18.88207687678725</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,19 +27590,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>204.5276314144161</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>120.7436121680616</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>375.6935338973658</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>171.2915140032632</v>
+        <v>163.7887810877119</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27867,7 +27867,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>57.7537732500742</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>4.095730177743633</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.1431374666141</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -28070,7 +28070,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28092,16 +28092,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-5.302798671987058e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28298,7 +28298,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-6.104980735503416e-13</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28803,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>483.7766911539678</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>462.9969567069692</v>
+        <v>121.048325775373</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="O2" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="L3" t="n">
-        <v>292.7793411803254</v>
+        <v>93.66335920375951</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539678</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>483.7766911539678</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>128.2935975567504</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34871,13 +34871,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>72.14114201029115</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>533.7539620806207</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>245.6677613624788</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937756</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35114,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,13 +35187,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>510.5455990486533</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="L9" t="n">
         <v>556.2278131155941</v>
@@ -35263,7 +35263,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>440.0596680121639</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>267.0533324336329</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
@@ -35418,19 +35418,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>200.7306752811501</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>829.083256830728</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35649,10 +35649,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M14" t="n">
         <v>1014.430405473796</v>
@@ -35664,10 +35664,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>208.6225309666485</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q15" t="n">
         <v>468.8338150129084</v>
@@ -35822,7 +35822,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968663</v>
       </c>
       <c r="Q16" t="n">
         <v>128.2829598391535</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>94.10236418953517</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35895,7 +35895,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>333.1613907719469</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35904,10 +35904,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.5260868755249</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36138,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36211,19 +36211,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36299,7 +36299,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>128.2829598391576</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36369,19 +36369,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>333.1613907719469</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>690.7922068925909</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37089,10 +37089,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>436.0509951211323</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,22 +37314,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>86.80031487885682</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37551,10 +37551,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454813</v>
       </c>
       <c r="N38" t="n">
-        <v>238.7351072494335</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37566,7 +37566,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>197.5373662309376</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>771.074302722829</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
@@ -37800,10 +37800,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>361.4796159561455</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>36.8720965312793</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,13 +38025,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>726.1504520311679</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38101,7 +38101,7 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>396.8624089123078</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
